--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mmp9-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mmp9-Cd44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Mmp9</t>
+  </si>
+  <si>
+    <t>Cd44</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Mmp9</t>
-  </si>
-  <si>
-    <t>Cd44</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>178.6795653333333</v>
+        <v>1.627176</v>
       </c>
       <c r="H2">
-        <v>536.038696</v>
+        <v>4.881528</v>
       </c>
       <c r="I2">
-        <v>0.9735959054718317</v>
+        <v>0.2586999172896354</v>
       </c>
       <c r="J2">
-        <v>0.9735959054718317</v>
+        <v>0.2586999172896354</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>239.0839323333333</v>
+        <v>24.576554</v>
       </c>
       <c r="N2">
-        <v>717.251797</v>
+        <v>73.729662</v>
       </c>
       <c r="O2">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="P2">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="Q2">
-        <v>42719.41310750408</v>
+        <v>39.99037883150401</v>
       </c>
       <c r="R2">
-        <v>384474.7179675367</v>
+        <v>359.913409483536</v>
       </c>
       <c r="S2">
-        <v>0.3979062503196</v>
+        <v>0.01954158910942888</v>
       </c>
       <c r="T2">
-        <v>0.3979062503196</v>
+        <v>0.01954158910942888</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>178.6795653333333</v>
+        <v>1.627176</v>
       </c>
       <c r="H3">
-        <v>536.038696</v>
+        <v>4.881528</v>
       </c>
       <c r="I3">
-        <v>0.9735959054718317</v>
+        <v>0.2586999172896354</v>
       </c>
       <c r="J3">
-        <v>0.9735959054718317</v>
+        <v>0.2586999172896354</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>351.153809</v>
       </c>
       <c r="O3">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="P3">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="Q3">
-        <v>20914.66998575478</v>
+        <v>190.463016771128</v>
       </c>
       <c r="R3">
-        <v>188232.029871793</v>
+        <v>1714.167150940152</v>
       </c>
       <c r="S3">
-        <v>0.1948078708328911</v>
+        <v>0.09307113668429498</v>
       </c>
       <c r="T3">
-        <v>0.1948078708328911</v>
+        <v>0.09307113668429498</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>178.6795653333333</v>
+        <v>1.627176</v>
       </c>
       <c r="H4">
-        <v>536.038696</v>
+        <v>4.881528</v>
       </c>
       <c r="I4">
-        <v>0.9735959054718317</v>
+        <v>0.2586999172896354</v>
       </c>
       <c r="J4">
-        <v>0.9735959054718317</v>
+        <v>0.2586999172896354</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>57.695868</v>
+        <v>55.68784966666667</v>
       </c>
       <c r="N4">
-        <v>173.087604</v>
+        <v>167.063549</v>
       </c>
       <c r="O4">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="P4">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="Q4">
-        <v>10309.07261576938</v>
+        <v>90.61393246920802</v>
       </c>
       <c r="R4">
-        <v>92781.65354192437</v>
+        <v>815.5253922228721</v>
       </c>
       <c r="S4">
-        <v>0.09602295842619382</v>
+        <v>0.04427915632816734</v>
       </c>
       <c r="T4">
-        <v>0.09602295842619382</v>
+        <v>0.04427915632816734</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>178.6795653333333</v>
+        <v>1.627176</v>
       </c>
       <c r="H5">
-        <v>536.038696</v>
+        <v>4.881528</v>
       </c>
       <c r="I5">
-        <v>0.9735959054718317</v>
+        <v>0.2586999172896354</v>
       </c>
       <c r="J5">
-        <v>0.9735959054718317</v>
+        <v>0.2586999172896354</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>171.15883</v>
+        <v>128.0392633333333</v>
       </c>
       <c r="N5">
-        <v>513.4764899999999</v>
+        <v>384.11779</v>
       </c>
       <c r="O5">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="P5">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="Q5">
-        <v>30582.58534736189</v>
+        <v>208.34241635368</v>
       </c>
       <c r="R5">
-        <v>275243.2681262569</v>
+        <v>1875.08174718312</v>
       </c>
       <c r="S5">
-        <v>0.2848588258931466</v>
+        <v>0.1018080351677442</v>
       </c>
       <c r="T5">
-        <v>0.2848588258931466</v>
+        <v>0.1018080351677442</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,14 +770,14 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.627176</v>
+        <v>0.5265696666666667</v>
       </c>
       <c r="H6">
-        <v>4.881528</v>
+        <v>1.579709</v>
       </c>
       <c r="I6">
-        <v>0.00886621751136806</v>
+        <v>0.08371775961168156</v>
       </c>
       <c r="J6">
-        <v>0.00886621751136806</v>
+        <v>0.08371775961168154</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>239.0839323333333</v>
+        <v>24.576554</v>
       </c>
       <c r="N6">
-        <v>717.251797</v>
+        <v>73.729662</v>
       </c>
       <c r="O6">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="P6">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="Q6">
-        <v>389.031636678424</v>
+        <v>12.94126784759534</v>
       </c>
       <c r="R6">
-        <v>3501.284730105816</v>
+        <v>116.471410628358</v>
       </c>
       <c r="S6">
-        <v>0.003623601275065665</v>
+        <v>0.006323844540165866</v>
       </c>
       <c r="T6">
-        <v>0.003623601275065665</v>
+        <v>0.006323844540165864</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.627176</v>
+        <v>0.5265696666666667</v>
       </c>
       <c r="H7">
-        <v>4.881528</v>
+        <v>1.579709</v>
       </c>
       <c r="I7">
-        <v>0.00886621751136806</v>
+        <v>0.08371775961168156</v>
       </c>
       <c r="J7">
-        <v>0.00886621751136806</v>
+        <v>0.08371775961168154</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>351.153809</v>
       </c>
       <c r="O7">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="P7">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="Q7">
-        <v>190.463016771128</v>
+        <v>61.63564805128679</v>
       </c>
       <c r="R7">
-        <v>1714.167150940152</v>
+        <v>554.720832461581</v>
       </c>
       <c r="S7">
-        <v>0.001774051170535534</v>
+        <v>0.03011870714669894</v>
       </c>
       <c r="T7">
-        <v>0.001774051170535534</v>
+        <v>0.03011870714669893</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.627176</v>
+        <v>0.5265696666666667</v>
       </c>
       <c r="H8">
-        <v>4.881528</v>
+        <v>1.579709</v>
       </c>
       <c r="I8">
-        <v>0.00886621751136806</v>
+        <v>0.08371775961168156</v>
       </c>
       <c r="J8">
-        <v>0.00886621751136806</v>
+        <v>0.08371775961168154</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>57.695868</v>
+        <v>55.68784966666667</v>
       </c>
       <c r="N8">
-        <v>173.087604</v>
+        <v>167.063549</v>
       </c>
       <c r="O8">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="P8">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="Q8">
-        <v>93.881331708768</v>
+        <v>29.32353243636012</v>
       </c>
       <c r="R8">
-        <v>844.931985378912</v>
+        <v>263.911791927241</v>
       </c>
       <c r="S8">
-        <v>0.0008744494822819677</v>
+        <v>0.01432915713358868</v>
       </c>
       <c r="T8">
-        <v>0.0008744494822819677</v>
+        <v>0.01432915713358868</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.627176</v>
+        <v>0.5265696666666667</v>
       </c>
       <c r="H9">
-        <v>4.881528</v>
+        <v>1.579709</v>
       </c>
       <c r="I9">
-        <v>0.00886621751136806</v>
+        <v>0.08371775961168156</v>
       </c>
       <c r="J9">
-        <v>0.00886621751136806</v>
+        <v>0.08371775961168154</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>171.15883</v>
+        <v>128.0392633333333</v>
       </c>
       <c r="N9">
-        <v>513.4764899999999</v>
+        <v>384.11779</v>
       </c>
       <c r="O9">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="P9">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="Q9">
-        <v>278.50554036408</v>
+        <v>67.42159221367889</v>
       </c>
       <c r="R9">
-        <v>2506.54986327672</v>
+        <v>606.79432992311</v>
       </c>
       <c r="S9">
-        <v>0.002594115583484892</v>
+        <v>0.03294605079122807</v>
       </c>
       <c r="T9">
-        <v>0.002594115583484892</v>
+        <v>0.03294605079122807</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,14 +1018,14 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.631529</v>
+        <v>4.136074666666667</v>
       </c>
       <c r="H10">
-        <v>1.894587</v>
+        <v>12.408224</v>
       </c>
       <c r="I10">
-        <v>0.003441098860072149</v>
+        <v>0.6575823230986831</v>
       </c>
       <c r="J10">
-        <v>0.003441098860072149</v>
+        <v>0.6575823230986831</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>239.0839323333333</v>
+        <v>24.576554</v>
       </c>
       <c r="N10">
-        <v>717.251797</v>
+        <v>73.729662</v>
       </c>
       <c r="O10">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="P10">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="Q10">
-        <v>150.9884367025377</v>
+        <v>101.6504623933653</v>
       </c>
       <c r="R10">
-        <v>1358.895930322839</v>
+        <v>914.8541615402881</v>
       </c>
       <c r="S10">
-        <v>0.001406368634764122</v>
+        <v>0.04967223684587165</v>
       </c>
       <c r="T10">
-        <v>0.001406368634764122</v>
+        <v>0.04967223684587164</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,13 +1080,13 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.631529</v>
+        <v>4.136074666666667</v>
       </c>
       <c r="H11">
-        <v>1.894587</v>
+        <v>12.408224</v>
       </c>
       <c r="I11">
-        <v>0.003441098860072149</v>
+        <v>0.6575823230986831</v>
       </c>
       <c r="J11">
-        <v>0.003441098860072149</v>
+        <v>0.6575823230986831</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>351.153809</v>
       </c>
       <c r="O11">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="P11">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="Q11">
-        <v>73.92127128132033</v>
+        <v>484.1327911694684</v>
       </c>
       <c r="R11">
-        <v>665.2914415318829</v>
+        <v>4357.195120525216</v>
       </c>
       <c r="S11">
-        <v>0.000688533238984065</v>
+        <v>0.2365750051855381</v>
       </c>
       <c r="T11">
-        <v>0.0006885332389840651</v>
+        <v>0.2365750051855381</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,13 +1142,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.631529</v>
+        <v>4.136074666666667</v>
       </c>
       <c r="H12">
-        <v>1.894587</v>
+        <v>12.408224</v>
       </c>
       <c r="I12">
-        <v>0.003441098860072149</v>
+        <v>0.6575823230986831</v>
       </c>
       <c r="J12">
-        <v>0.003441098860072149</v>
+        <v>0.6575823230986831</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>57.695868</v>
+        <v>55.68784966666667</v>
       </c>
       <c r="N12">
-        <v>173.087604</v>
+        <v>167.063549</v>
       </c>
       <c r="O12">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="P12">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="Q12">
-        <v>36.436613822172</v>
+        <v>230.3291042474418</v>
       </c>
       <c r="R12">
-        <v>327.929524399548</v>
+        <v>2072.961938226977</v>
       </c>
       <c r="S12">
-        <v>0.0003393856639331263</v>
+        <v>0.1125519899201475</v>
       </c>
       <c r="T12">
-        <v>0.0003393856639331263</v>
+        <v>0.1125519899201475</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,13 +1204,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.631529</v>
+        <v>4.136074666666667</v>
       </c>
       <c r="H13">
-        <v>1.894587</v>
+        <v>12.408224</v>
       </c>
       <c r="I13">
-        <v>0.003441098860072149</v>
+        <v>0.6575823230986831</v>
       </c>
       <c r="J13">
-        <v>0.003441098860072149</v>
+        <v>0.6575823230986831</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>171.15883</v>
+        <v>128.0392633333333</v>
       </c>
       <c r="N13">
-        <v>513.4764899999999</v>
+        <v>384.11779</v>
       </c>
       <c r="O13">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="P13">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="Q13">
-        <v>108.09176475107</v>
+        <v>529.5799534116622</v>
       </c>
       <c r="R13">
-        <v>972.8258827596298</v>
+        <v>4766.21958070496</v>
       </c>
       <c r="S13">
-        <v>0.001006811322390835</v>
+        <v>0.2587830911471259</v>
       </c>
       <c r="T13">
-        <v>0.001006811322390836</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>2.587116666666667</v>
-      </c>
-      <c r="H14">
-        <v>7.76135</v>
-      </c>
-      <c r="I14">
-        <v>0.01409677815672808</v>
-      </c>
-      <c r="J14">
-        <v>0.01409677815672808</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>239.0839323333333</v>
-      </c>
-      <c r="N14">
-        <v>717.251797</v>
-      </c>
-      <c r="O14">
-        <v>0.4086975387666237</v>
-      </c>
-      <c r="P14">
-        <v>0.4086975387666237</v>
-      </c>
-      <c r="Q14">
-        <v>618.5380260717723</v>
-      </c>
-      <c r="R14">
-        <v>5566.84223464595</v>
-      </c>
-      <c r="S14">
-        <v>0.005761318537193866</v>
-      </c>
-      <c r="T14">
-        <v>0.005761318537193867</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>2.587116666666667</v>
-      </c>
-      <c r="H15">
-        <v>7.76135</v>
-      </c>
-      <c r="I15">
-        <v>0.01409677815672808</v>
-      </c>
-      <c r="J15">
-        <v>0.01409677815672808</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>117.0512696666667</v>
-      </c>
-      <c r="N15">
-        <v>351.153809</v>
-      </c>
-      <c r="O15">
-        <v>0.200091095020045</v>
-      </c>
-      <c r="P15">
-        <v>0.200091095020045</v>
-      </c>
-      <c r="Q15">
-        <v>302.8252906091278</v>
-      </c>
-      <c r="R15">
-        <v>2725.42761548215</v>
-      </c>
-      <c r="S15">
-        <v>0.002820639777634373</v>
-      </c>
-      <c r="T15">
-        <v>0.002820639777634373</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2.587116666666667</v>
-      </c>
-      <c r="H16">
-        <v>7.76135</v>
-      </c>
-      <c r="I16">
-        <v>0.01409677815672808</v>
-      </c>
-      <c r="J16">
-        <v>0.01409677815672808</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>57.695868</v>
-      </c>
-      <c r="N16">
-        <v>173.087604</v>
-      </c>
-      <c r="O16">
-        <v>0.09862711817759588</v>
-      </c>
-      <c r="P16">
-        <v>0.09862711817759588</v>
-      </c>
-      <c r="Q16">
-        <v>149.2659417006</v>
-      </c>
-      <c r="R16">
-        <v>1343.3934753054</v>
-      </c>
-      <c r="S16">
-        <v>0.001390324605186972</v>
-      </c>
-      <c r="T16">
-        <v>0.001390324605186972</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>2.587116666666667</v>
-      </c>
-      <c r="H17">
-        <v>7.76135</v>
-      </c>
-      <c r="I17">
-        <v>0.01409677815672808</v>
-      </c>
-      <c r="J17">
-        <v>0.01409677815672808</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>171.15883</v>
-      </c>
-      <c r="N17">
-        <v>513.4764899999999</v>
-      </c>
-      <c r="O17">
-        <v>0.2925842480357352</v>
-      </c>
-      <c r="P17">
-        <v>0.2925842480357352</v>
-      </c>
-      <c r="Q17">
-        <v>442.8078617401666</v>
-      </c>
-      <c r="R17">
-        <v>3985.270755661499</v>
-      </c>
-      <c r="S17">
-        <v>0.004124495236712862</v>
-      </c>
-      <c r="T17">
-        <v>0.004124495236712863</v>
+        <v>0.2587830911471259</v>
       </c>
     </row>
   </sheetData>
